--- a/data/xlsx/2022-22.xlsx
+++ b/data/xlsx/2022-22.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dnanto/GitHub/broomball/data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4FC677A-5F0B-A045-B0C7-80E1824CFFD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2760D331-9D81-374A-9FBA-EE24D33AA5C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="4" xr2:uid="{53854211-716F-CB4B-9607-3FE35C601A32}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <sheet name="2-1" sheetId="4" r:id="rId4"/>
     <sheet name="3-1" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,6 +32,7 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
